--- a/data/input/absenteeism_data_1.xlsx
+++ b/data/input/absenteeism_data_1.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50310</v>
+        <v>48181</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thomas Teixeira</t>
+          <t>Murilo Oliveira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>4167.42</v>
+        <v>9200.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37998</v>
+        <v>70413</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pedro Miguel Sales</t>
+          <t>Sarah da Mota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,56 +523,56 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45078</v>
       </c>
       <c r="G3" t="n">
-        <v>7662.09</v>
+        <v>4906.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2406</v>
+        <v>43096</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sophie Porto</t>
+          <t>André Fogaça</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>4327.53</v>
+        <v>8288.440000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66312</v>
+        <v>3653</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mariana Dias</t>
+          <t>Ana Lívia Dias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,51 +581,51 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45097</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>8366.67</v>
+        <v>8895.469999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18469</v>
+        <v>27227</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maria Julia Freitas</t>
+          <t>Bruna Nascimento</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45102</v>
+        <v>45079</v>
       </c>
       <c r="G6" t="n">
-        <v>4244.74</v>
+        <v>2858.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>59593</v>
+        <v>38773</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vitor Hugo Vieira</t>
+          <t>Sr. Pietro da Cunha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,56 +639,56 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45079</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>8111.65</v>
+        <v>4180.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13563</v>
+        <v>86651</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Julia Silva</t>
+          <t>Laís Lopes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>8778.41</v>
+        <v>12405.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98442</v>
+        <v>21760</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Julia da Rocha</t>
+          <t>Maria Vitória Rezende</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,27 +697,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45101</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>7423.79</v>
+        <v>5800.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11407</v>
+        <v>2383</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Joana Alves</t>
+          <t>Nathan Castro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45081</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>2968.39</v>
+        <v>10196.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18080</v>
+        <v>49984</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dra. Ana Júlia Cardoso</t>
+          <t>Luiza Martins</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45081</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>11194.54</v>
+        <v>6505.24</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_1.xlsx
+++ b/data/input/absenteeism_data_1.xlsx
@@ -476,214 +476,214 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>48181</v>
+        <v>66158</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Murilo Oliveira</t>
+          <t>Luiz Felipe Correia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45088</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>9200.51</v>
+        <v>6675.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70413</v>
+        <v>88523</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sarah da Mota</t>
+          <t>Luiz Otávio Silveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>4906.27</v>
+        <v>5676.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>43096</v>
+        <v>32684</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>André Fogaça</t>
+          <t>Davi Lucca da Paz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>8288.440000000001</v>
+        <v>5063.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3653</v>
+        <v>94968</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Lívia Dias</t>
+          <t>Sr. Vitor Hugo Oliveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>8895.469999999999</v>
+        <v>10223.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>27227</v>
+        <v>90486</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bruna Nascimento</t>
+          <t>Alana Jesus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45079</v>
+        <v>45096</v>
       </c>
       <c r="G6" t="n">
-        <v>2858.99</v>
+        <v>8929.059999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38773</v>
+        <v>38736</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Pietro da Cunha</t>
+          <t>Srta. Julia Sales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>4180.8</v>
+        <v>10905.71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>86651</v>
+        <v>70633</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Laís Lopes</t>
+          <t>Laura Alves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>12405.18</v>
+        <v>2502.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>21760</v>
+        <v>58941</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maria Vitória Rezende</t>
+          <t>Vitória Ferreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>5800.12</v>
+        <v>4992.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2383</v>
+        <v>77812</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nathan Castro</t>
+          <t>Srta. Joana Rezende</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45100</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>10196.16</v>
+        <v>5178.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>49984</v>
+        <v>85837</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiza Martins</t>
+          <t>Amanda das Neves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45093</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>6505.24</v>
+        <v>5409.13</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_1.xlsx
+++ b/data/input/absenteeism_data_1.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66158</v>
+        <v>45452</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luiz Felipe Correia</t>
+          <t>Felipe Lopes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>6675.82</v>
+        <v>7208.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>88523</v>
+        <v>22395</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luiz Otávio Silveira</t>
+          <t>Renan Jesus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,56 +523,56 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="G3" t="n">
-        <v>5676.45</v>
+        <v>2977.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>32684</v>
+        <v>30073</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Davi Lucca da Paz</t>
+          <t>Sra. Clarice Novaes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45106</v>
       </c>
       <c r="G4" t="n">
-        <v>5063.57</v>
+        <v>9249.780000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94968</v>
+        <v>77243</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Vitor Hugo Oliveira</t>
+          <t>Noah Rezende</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,114 +581,114 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45080</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>10223.88</v>
+        <v>7611.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>90486</v>
+        <v>49422</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alana Jesus</t>
+          <t>Sr. Felipe da Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45096</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>8929.059999999999</v>
+        <v>8145.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38736</v>
+        <v>48868</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Srta. Julia Sales</t>
+          <t>Maria Fernanda Fernandes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45088</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>10905.71</v>
+        <v>5942.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70633</v>
+        <v>918</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Laura Alves</t>
+          <t>Dr. João Gabriel Rodrigues</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>2502.34</v>
+        <v>9941.43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>58941</v>
+        <v>6344</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vitória Ferreira</t>
+          <t>Arthur Nascimento</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45083</v>
       </c>
       <c r="G9" t="n">
-        <v>4992.12</v>
+        <v>10638.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>77812</v>
+        <v>84974</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Srta. Joana Rezende</t>
+          <t>Pietro Cavalcanti</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45102</v>
       </c>
       <c r="G10" t="n">
-        <v>5178.49</v>
+        <v>4107.27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>85837</v>
+        <v>34983</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Amanda das Neves</t>
+          <t>Amanda Lima</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>5409.13</v>
+        <v>8603.780000000001</v>
       </c>
     </row>
   </sheetData>
